--- a/Donnees_Indispo.xlsx
+++ b/Donnees_Indispo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e3e93a7e0c88a78/Documents/INSA_4_GMM/Semestre 2/Projet tutoré/Projet_CREPS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F7F51A9-366E-41D5-813A-006514BB173C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="330" documentId="8_{0F7F51A9-366E-41D5-813A-006514BB173C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{76AECC45-2AAC-4B05-B25C-3A0974BD16E4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BB6F68D8-A752-4FF0-8881-DB3219CBAED9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -64,6 +64,15 @@
   </si>
   <si>
     <t>NS</t>
+  </si>
+  <si>
+    <t>NB_INDISPO_1</t>
+  </si>
+  <si>
+    <t>NB_INDISPO_2</t>
+  </si>
+  <si>
+    <t>NB_INDISPO_3</t>
   </si>
 </sst>
 </file>
@@ -98,12 +107,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -121,7 +136,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -135,6 +150,10 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -451,15 +470,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF03313D-368E-4556-A1F3-F632F0A84F2D}">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="I95" sqref="I95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -467,13 +493,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -484,10 +519,21 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f xml:space="preserve"> C2*1+D2*2+E2*3</f>
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>C2+D2+E2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -495,13 +541,24 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="0" xml:space="preserve"> C3*1+D3*2+E3*3</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <f t="shared" ref="G3:G9" si="1">C3+D3+E3</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -509,13 +566,24 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -523,13 +591,24 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -537,13 +616,24 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -551,13 +641,24 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -568,10 +669,21 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -579,13 +691,24 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -593,13 +716,23 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G10" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -607,13 +740,24 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ref="G11:G32" si="2">C11+D11+E11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -621,13 +765,24 @@
         <v>5</v>
       </c>
       <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="D12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -635,13 +790,24 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -652,10 +818,21 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -663,13 +840,24 @@
         <v>5</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -677,13 +865,24 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -691,13 +890,24 @@
         <v>5</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -705,13 +915,24 @@
         <v>5</v>
       </c>
       <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="D18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -719,13 +940,24 @@
         <v>5</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -733,13 +965,24 @@
         <v>5</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -747,13 +990,24 @@
         <v>5</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -761,113 +1015,201 @@
         <v>5</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>23</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>24</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <v>29</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29">
-        <v>3</v>
-      </c>
-      <c r="D29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>30</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>7</v>
@@ -876,82 +1218,147 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G33" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ref="G34:G43" si="3">C34+D34+E34</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>7</v>
@@ -960,12 +1367,23 @@
         <v>1</v>
       </c>
       <c r="D36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>7</v>
@@ -974,124 +1392,221 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
         <v>41</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <v>42</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D42">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C44">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D44">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G44" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G45" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>8</v>
@@ -1100,71 +1615,124 @@
         <v>1</v>
       </c>
       <c r="D46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <f t="shared" ref="G46:G48" si="4">C46+D46+E46</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="G49" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <f>A49+1</f>
+        <v>49</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D48">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
-        <f>A48+1</f>
-        <v>49</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49">
-        <v>2</v>
-      </c>
-      <c r="D49">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
-        <f t="shared" ref="A50:A71" si="0">A49+1</f>
+      <c r="G50">
+        <f t="shared" ref="G50:G68" si="5">C50+D50+E50</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <f t="shared" ref="A50:A72" si="6">A50+1</f>
         <v>50</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50">
-        <v>2</v>
-      </c>
-      <c r="D50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
-        <f t="shared" si="0"/>
-        <v>51</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>4</v>
@@ -1173,310 +1741,1266 @@
         <v>1</v>
       </c>
       <c r="D51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
-        <f t="shared" si="0"/>
-        <v>52</v>
+        <f t="shared" si="6"/>
+        <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <f t="shared" si="6"/>
         <v>53</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
-        <f t="shared" si="0"/>
+      <c r="B54" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54">
-        <v>2</v>
-      </c>
-      <c r="D54">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
-        <f t="shared" si="0"/>
+      <c r="B55" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55">
-        <v>2</v>
-      </c>
-      <c r="D55">
+      <c r="B56" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
-        <f t="shared" si="0"/>
+      <c r="G56">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C56">
-        <v>2</v>
-      </c>
-      <c r="D56">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
-        <f t="shared" si="0"/>
+      <c r="B57" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <f t="shared" si="6"/>
         <v>57</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57">
+      <c r="B58" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D57">
+      <c r="G58">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <f t="shared" si="6"/>
+        <v>58</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <f t="shared" si="6"/>
+        <v>59</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58">
-        <v>3</v>
-      </c>
-      <c r="D58">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59">
-        <v>2</v>
-      </c>
-      <c r="D59">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C60">
-        <v>3</v>
-      </c>
-      <c r="D60">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
-        <f t="shared" si="0"/>
+      <c r="G61">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <f t="shared" si="6"/>
         <v>61</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61">
-        <v>2</v>
-      </c>
-      <c r="D61">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
-        <f t="shared" si="0"/>
-        <v>62</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <f t="shared" si="0"/>
-        <v>63</v>
+        <f t="shared" si="6"/>
+        <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
-        <f t="shared" si="0"/>
-        <v>64</v>
+        <f t="shared" si="6"/>
+        <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <f t="shared" si="6"/>
         <v>65</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
-        <f t="shared" si="0"/>
-        <v>66</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F89" si="7" xml:space="preserve"> C67*1+D67*2+E67*3</f>
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <f t="shared" si="6"/>
         <v>67</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67">
-        <v>4</v>
-      </c>
-      <c r="D67">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="4">
-        <f t="shared" si="0"/>
-        <v>68</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C68">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <f t="shared" si="0"/>
-        <v>69</v>
+        <f t="shared" si="6"/>
+        <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C69">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D69">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="G69" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
-        <f t="shared" si="0"/>
-        <v>70</v>
+        <f t="shared" si="6"/>
+        <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>5</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="G70" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
-        <f t="shared" si="0"/>
-        <v>71</v>
+        <f t="shared" si="6"/>
+        <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="G71">
+        <f t="shared" ref="G71:G89" si="8">C71+D71+E71</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <f t="shared" ref="F90:F100" si="9" xml:space="preserve"> C90*1+D90*2+E90*3</f>
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <f t="shared" ref="G90:G100" si="10">C90+D90+E90</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Donnees_Indispo.xlsx
+++ b/Donnees_Indispo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e3e93a7e0c88a78/Documents/INSA_4_GMM/Semestre 2/Projet tutoré/Projet_CREPS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="330" documentId="8_{0F7F51A9-366E-41D5-813A-006514BB173C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{76AECC45-2AAC-4B05-B25C-3A0974BD16E4}"/>
+  <xr:revisionPtr revIDLastSave="494" documentId="8_{0F7F51A9-366E-41D5-813A-006514BB173C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A090558B-2517-43D8-8E71-74A90EA126D7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BB6F68D8-A752-4FF0-8881-DB3219CBAED9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>NB_INDISPO_3</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>BS</t>
   </si>
 </sst>
 </file>
@@ -470,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF03313D-368E-4556-A1F3-F632F0A84F2D}">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="I95" sqref="I95"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="A136" sqref="A136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1731,7 +1737,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
-        <f t="shared" ref="A50:A72" si="6">A50+1</f>
+        <f t="shared" ref="A51:A72" si="6">A50+1</f>
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -2741,11 +2747,11 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <f t="shared" ref="F90:F100" si="9" xml:space="preserve"> C90*1+D90*2+E90*3</f>
+        <f t="shared" ref="F90:F129" si="9" xml:space="preserve"> C90*1+D90*2+E90*3</f>
         <v>0</v>
       </c>
       <c r="G90">
-        <f t="shared" ref="G90:G100" si="10">C90+D90+E90</f>
+        <f t="shared" ref="G90:G110" si="10">C90+D90+E90</f>
         <v>0</v>
       </c>
     </row>
@@ -2996,6 +3002,880 @@
       </c>
       <c r="G100">
         <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C103">
+        <v>3</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C104">
+        <v>3</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C106">
+        <v>3</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>2</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="G110" s="6">
+        <f>3</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <f>C111+D111+E111</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="G112">
+        <f t="shared" ref="G112:G113" si="11">C112+D112+E112</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>2</v>
+      </c>
+      <c r="F114">
+        <f xml:space="preserve"> C114*1+D114*2+E114*3</f>
+        <v>6</v>
+      </c>
+      <c r="G114" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C115">
+        <v>2</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <f xml:space="preserve"> C115*1+D115*2+E115*3</f>
+        <v>2</v>
+      </c>
+      <c r="G115">
+        <f>C115+D115+E115</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <f xml:space="preserve"> C116*1+D116*2+E116*3</f>
+        <v>1</v>
+      </c>
+      <c r="G116">
+        <f>C116+D116+E116</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117">
+        <f xml:space="preserve"> C117*1+D117*2+E117*3</f>
+        <v>5</v>
+      </c>
+      <c r="G117">
+        <f>C117+D117+E117</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C118">
+        <v>3</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <f xml:space="preserve"> C118*1+D118*2+E118*3</f>
+        <v>3</v>
+      </c>
+      <c r="G118">
+        <f>C118+D118+E118</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119">
+        <f xml:space="preserve"> C119*1+D119*2+E119*3</f>
+        <v>3</v>
+      </c>
+      <c r="G119">
+        <f>C119+D119+E119</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120">
+        <f xml:space="preserve"> C120*1+D120*2+E120*3</f>
+        <v>3</v>
+      </c>
+      <c r="G120">
+        <f>C120+D120+E120</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="F121">
+        <f t="shared" ref="F121:F135" si="12" xml:space="preserve"> C121*1+D121*2+E121*3</f>
+        <v>5</v>
+      </c>
+      <c r="G121">
+        <f>C121+D121+E121</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="G122">
+        <f>C122+D122+E122</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C123">
+        <v>2</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="G123">
+        <f>C123+D123+E123</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C124">
+        <v>2</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="G124">
+        <f>C124+D124+E124</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <f>C125+D125+E125</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <f t="shared" ref="G126:G135" si="13">C126+D126+E126</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>

--- a/Donnees_Indispo.xlsx
+++ b/Donnees_Indispo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e3e93a7e0c88a78/Documents/INSA_4_GMM/Semestre 2/Projet tutoré/Projet_CREPS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexia\Desktop\INSA\4A\PROJET\Projet_CREPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="494" documentId="8_{0F7F51A9-366E-41D5-813A-006514BB173C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A090558B-2517-43D8-8E71-74A90EA126D7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47204181-8F2C-48C8-9706-DAE89C231196}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BB6F68D8-A752-4FF0-8881-DB3219CBAED9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BB6F68D8-A752-4FF0-8881-DB3219CBAED9}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -48,22 +47,10 @@
     <t>TOT_INDISPO</t>
   </si>
   <si>
-    <t>AV</t>
-  </si>
-  <si>
     <t>BK</t>
   </si>
   <si>
     <t>BL</t>
-  </si>
-  <si>
-    <t>NAT</t>
-  </si>
-  <si>
-    <t>BF</t>
-  </si>
-  <si>
-    <t>NS</t>
   </si>
   <si>
     <t>NB_INDISPO_1</t>
@@ -79,6 +66,18 @@
   </si>
   <si>
     <t>BS</t>
+  </si>
+  <si>
+    <t>RW</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>SS</t>
   </si>
 </sst>
 </file>
@@ -478,20 +477,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF03313D-368E-4556-A1F3-F632F0A84F2D}">
   <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A136" sqref="A136"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" customWidth="1"/>
+    <col min="4" max="4" width="20.26953125" customWidth="1"/>
+    <col min="5" max="5" width="22.1796875" customWidth="1"/>
+    <col min="6" max="6" width="20.54296875" customWidth="1"/>
+    <col min="7" max="7" width="23.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,27 +498,27 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -539,12 +538,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -564,12 +563,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -589,12 +588,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -614,12 +613,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -639,12 +638,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -664,12 +663,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -689,12 +688,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -714,12 +713,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -738,12 +737,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -763,12 +762,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -788,12 +787,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -813,12 +812,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -838,12 +837,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -863,12 +862,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -888,12 +887,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -913,12 +912,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -938,12 +937,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -963,12 +962,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -988,12 +987,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1013,12 +1012,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1038,12 +1037,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1063,12 +1062,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1088,12 +1087,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1113,12 +1112,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1138,12 +1137,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1163,12 +1162,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1188,12 +1187,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1213,12 +1212,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1238,12 +1237,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1263,12 +1262,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1288,12 +1287,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1312,12 +1311,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -1337,12 +1336,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1362,12 +1361,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1387,12 +1386,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1412,12 +1411,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1437,12 +1436,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -1462,12 +1461,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1487,12 +1486,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -1512,12 +1511,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -1537,12 +1536,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -1562,12 +1561,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1586,12 +1585,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -1610,12 +1609,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -1635,12 +1634,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -1660,12 +1659,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -1685,12 +1684,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -1709,13 +1708,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
         <f>A49+1</f>
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1735,13 +1734,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
         <f t="shared" ref="A51:A72" si="6">A50+1</f>
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -1761,13 +1760,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
         <f t="shared" si="6"/>
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1787,13 +1786,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
         <f t="shared" si="6"/>
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1813,13 +1812,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
         <f t="shared" si="6"/>
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -1839,13 +1838,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="4">
         <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1865,13 +1864,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="4">
         <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -1891,13 +1890,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="4">
         <f t="shared" si="6"/>
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1917,13 +1916,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
         <f t="shared" si="6"/>
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -1943,13 +1942,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="4">
         <f t="shared" si="6"/>
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -1969,13 +1968,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="4">
         <f t="shared" si="6"/>
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -1995,13 +1994,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="4">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -2021,13 +2020,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="4">
         <f t="shared" si="6"/>
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -2047,13 +2046,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="4">
         <f t="shared" si="6"/>
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -2073,13 +2072,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="4">
         <f t="shared" si="6"/>
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -2099,13 +2098,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="4">
         <f t="shared" si="6"/>
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -2125,13 +2124,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="4">
         <f t="shared" si="6"/>
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -2151,13 +2150,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="4">
         <f t="shared" si="6"/>
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -2177,13 +2176,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="4">
         <f t="shared" si="6"/>
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -2203,13 +2202,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="4">
         <f t="shared" si="6"/>
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -2228,13 +2227,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="4">
         <f t="shared" si="6"/>
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -2253,13 +2252,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="4">
         <f t="shared" si="6"/>
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -2279,13 +2278,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="4">
         <f t="shared" si="6"/>
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -2305,12 +2304,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -2330,12 +2329,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -2355,12 +2354,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -2380,12 +2379,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -2405,12 +2404,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -2430,12 +2429,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -2455,12 +2454,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -2480,12 +2479,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -2505,12 +2504,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -2530,12 +2529,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -2555,12 +2554,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -2580,12 +2579,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -2605,12 +2604,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -2630,12 +2629,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -2655,12 +2654,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -2680,12 +2679,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -2705,12 +2704,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -2730,12 +2729,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -2747,20 +2746,20 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <f t="shared" ref="F90:F129" si="9" xml:space="preserve"> C90*1+D90*2+E90*3</f>
+        <f t="shared" ref="F90:F113" si="9" xml:space="preserve"> C90*1+D90*2+E90*3</f>
         <v>0</v>
       </c>
       <c r="G90">
-        <f t="shared" ref="G90:G110" si="10">C90+D90+E90</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G90:G109" si="10">C90+D90+E90</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -2780,12 +2779,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -2805,12 +2804,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -2830,12 +2829,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -2855,12 +2854,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -2880,12 +2879,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -2905,12 +2904,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -2930,12 +2929,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -2955,12 +2954,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -2980,12 +2979,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -3005,12 +3004,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -3030,12 +3029,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C102">
         <v>2</v>
@@ -3055,12 +3054,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C103">
         <v>3</v>
@@ -3080,12 +3079,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C104">
         <v>3</v>
@@ -3105,12 +3104,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -3130,12 +3129,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C106">
         <v>3</v>
@@ -3155,12 +3154,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -3180,12 +3179,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -3205,12 +3204,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -3230,12 +3229,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -3255,12 +3254,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -3280,12 +3279,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C112">
         <v>2</v>
@@ -3305,12 +3304,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -3330,12 +3329,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -3347,19 +3346,19 @@
         <v>2</v>
       </c>
       <c r="F114">
-        <f xml:space="preserve"> C114*1+D114*2+E114*3</f>
+        <f t="shared" ref="F114:F120" si="12" xml:space="preserve"> C114*1+D114*2+E114*3</f>
         <v>6</v>
       </c>
       <c r="G114" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C115">
         <v>2</v>
@@ -3371,20 +3370,20 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <f xml:space="preserve"> C115*1+D115*2+E115*3</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="G115">
-        <f>C115+D115+E115</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G115:G125" si="13">C115+D115+E115</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -3396,20 +3395,20 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <f xml:space="preserve"> C116*1+D116*2+E116*3</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G116">
-        <f>C116+D116+E116</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -3421,20 +3420,20 @@
         <v>1</v>
       </c>
       <c r="F117">
-        <f xml:space="preserve"> C117*1+D117*2+E117*3</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="G117">
-        <f>C117+D117+E117</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C118">
         <v>3</v>
@@ -3446,20 +3445,20 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <f xml:space="preserve"> C118*1+D118*2+E118*3</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="G118">
-        <f>C118+D118+E118</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -3471,20 +3470,20 @@
         <v>1</v>
       </c>
       <c r="F119">
-        <f xml:space="preserve"> C119*1+D119*2+E119*3</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="G119">
-        <f>C119+D119+E119</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -3496,20 +3495,20 @@
         <v>1</v>
       </c>
       <c r="F120">
-        <f xml:space="preserve"> C120*1+D120*2+E120*3</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="G120">
-        <f>C120+D120+E120</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -3521,20 +3520,20 @@
         <v>1</v>
       </c>
       <c r="F121">
-        <f t="shared" ref="F121:F135" si="12" xml:space="preserve"> C121*1+D121*2+E121*3</f>
+        <f t="shared" ref="F121:F135" si="14" xml:space="preserve"> C121*1+D121*2+E121*3</f>
         <v>5</v>
       </c>
       <c r="G121">
-        <f>C121+D121+E121</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -3546,20 +3545,20 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="G122">
-        <f>C122+D122+E122</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C123">
         <v>2</v>
@@ -3571,20 +3570,20 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="G123">
-        <f>C123+D123+E123</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C124">
         <v>2</v>
@@ -3596,20 +3595,20 @@
         <v>1</v>
       </c>
       <c r="F124">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="G124">
-        <f>C124+D124+E124</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -3621,20 +3620,20 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G125">
-        <f>C125+D125+E125</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -3646,20 +3645,20 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G126">
-        <f t="shared" ref="G126:G135" si="13">C126+D126+E126</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G126:G135" si="15">C126+D126+E126</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -3671,20 +3670,20 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G127">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -3696,20 +3695,20 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G128">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -3721,20 +3720,20 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G129">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -3746,20 +3745,20 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G130">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -3771,20 +3770,20 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G131">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -3796,20 +3795,20 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G132">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -3821,20 +3820,20 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G133">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -3846,20 +3845,20 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G134">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -3871,11 +3870,11 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G135">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
